--- a/docs/artifacts/rules/dms_rebuild_olav.xlsx
+++ b/docs/artifacts/rules/dms_rebuild_olav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3A7A14-97BC-484C-9FA1-94A05986ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4734D3A-88D6-47C1-BFFD-4003EAAB1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="263">
   <si>
     <t>role</t>
   </si>
@@ -60,9 +60,6 @@
     <t>space</t>
   </si>
   <si>
-    <t>power_analytics_update</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -96,7 +93,7 @@
     <t>updated</t>
   </si>
   <si>
-    <t>2024-05-21T09:53:33</t>
+    <t>2024-05-21T15:08:26</t>
   </si>
   <si>
     <t>Definition of Properties per Class</t>
@@ -246,9 +243,6 @@
     <t>Polygon</t>
   </si>
   <si>
-    <t>power_update:EnergyArea</t>
-  </si>
-  <si>
     <t>highPowerForecast</t>
   </si>
   <si>
@@ -273,18 +267,12 @@
     <t>activePower</t>
   </si>
   <si>
-    <t>power_update:GeneratingUnit</t>
-  </si>
-  <si>
     <t>hubHeight</t>
   </si>
   <si>
     <t>float64</t>
   </si>
   <si>
-    <t>power_update:WindTurbine</t>
-  </si>
-  <si>
     <t>lifeExpectancy</t>
   </si>
   <si>
@@ -309,12 +297,6 @@
     <t>ratedPower</t>
   </si>
   <si>
-    <t>power_update:Point</t>
-  </si>
-  <si>
-    <t>power_update:Polygon</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -327,43 +309,19 @@
     <t>maxCapacity</t>
   </si>
   <si>
-    <t>power_update:CircuitBreaker(version=0.1.0,property=maxCapacity)</t>
-  </si>
-  <si>
-    <t>power_update:CircuitBreaker</t>
-  </si>
-  <si>
     <t>CurrentTransformer</t>
   </si>
   <si>
-    <t>power_update:CurrentTransformer(version=0.1.0,property=maxCapacity)</t>
-  </si>
-  <si>
-    <t>power_update:CurrentTransformer</t>
-  </si>
-  <si>
     <t>DisconnectSwitch</t>
   </si>
   <si>
-    <t>power_update:DisconnectSwitch(version=0.1.0,property=maxCapacity)</t>
-  </si>
-  <si>
-    <t>power_update:DisconnectSwitch</t>
-  </si>
-  <si>
     <t>EnergyArea</t>
   </si>
   <si>
-    <t>power_update:EnergyArea(version=0.1.0,property=activePower)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyArea(version=0.1.0,property=geoLocation)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyArea(version=0.1.0,property=name)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyArea(version=0.1.0,property=ratedPower)</t>
+    <t>powerForecast</t>
+  </si>
+  <si>
+    <t>TimeseriesForecastProduct</t>
   </si>
   <si>
     <t>EnergyConsumer</t>
@@ -372,51 +330,15 @@
     <t>load</t>
   </si>
   <si>
-    <t>power_update:EnergyConsumer(version=0.1.0,property=load)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyConsumer</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>power_update:EnergyConsumer(version=0.1.0,property=location)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyConsumer(version=0.1.0,property=name)</t>
-  </si>
-  <si>
     <t>GeneratingUnit</t>
   </si>
   <si>
-    <t>power_update:GeneratingUnit(version=0.1.0,property=activePower)</t>
-  </si>
-  <si>
-    <t>activePower2</t>
-  </si>
-  <si>
-    <t>power_update:GeneratingUnit(version=0.1.0,property=activePower2)</t>
-  </si>
-  <si>
-    <t>power_update:GeneratingUnit(version=0.1.0,property=geoLocation)</t>
-  </si>
-  <si>
-    <t>power_update:GeneratingUnit(version=0.1.0,property=name)</t>
-  </si>
-  <si>
-    <t>power_update:GeneratingUnit(version=0.1.0,property=type)</t>
-  </si>
-  <si>
     <t>GeoLocation</t>
   </si>
   <si>
-    <t>power_update:GeoLocation(version=0.1.0,property=name)</t>
-  </si>
-  <si>
-    <t>power_update:GeoLocation</t>
-  </si>
-  <si>
     <t>Meter</t>
   </si>
   <si>
@@ -426,363 +348,156 @@
     <t>ElectricCarCharger</t>
   </si>
   <si>
-    <t>power_update:Meter(version=0.1.0,property=consumer)</t>
-  </si>
-  <si>
     <t>consumption</t>
   </si>
   <si>
-    <t>power_update:Meter(version=0.1.0,property=consumption)</t>
-  </si>
-  <si>
-    <t>power_update:Meter</t>
-  </si>
-  <si>
     <t>powerLine</t>
   </si>
   <si>
     <t>DistributionLine</t>
   </si>
   <si>
-    <t>power_update:Meter(version=0.1.0,property=powerLine)</t>
-  </si>
-  <si>
     <t>MultiLineString</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>power_update:MultiLineString(version=0.1.0,property=point)</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>power_update:Point(version=0.1.0,property=latitude)</t>
-  </si>
-  <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>power_update:Point(version=0.1.0,property=longitude)</t>
-  </si>
-  <si>
-    <t>power_update:Polygon(version=0.1.0,property=point)</t>
-  </si>
-  <si>
     <t>PowerLine</t>
   </si>
   <si>
     <t>currentVoltage</t>
   </si>
   <si>
-    <t>power_update:PowerLine(version=0.1.0,property=currentVoltage)</t>
-  </si>
-  <si>
-    <t>power_update:PowerLine</t>
-  </si>
-  <si>
-    <t>power_update:PowerLine(version=0.1.0,property=geoLocation)</t>
-  </si>
-  <si>
     <t>length</t>
   </si>
   <si>
-    <t>power_update:PowerLine(version=0.1.0,property=length)</t>
-  </si>
-  <si>
     <t>voltageLevel</t>
   </si>
   <si>
     <t>VoltageLevel</t>
   </si>
   <si>
-    <t>power_update:PowerLine(version=0.1.0,property=voltageLevel)</t>
-  </si>
-  <si>
     <t>Substation</t>
   </si>
   <si>
     <t>circuitBreaker</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=circuitBreaker)</t>
-  </si>
-  <si>
     <t>currentTransformer</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=currentTransformer)</t>
-  </si>
-  <si>
     <t>disconnectSwitch</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=disconnectSwitch)</t>
-  </si>
-  <si>
-    <t>power_update:Substation(version=0.1.0,property=location)</t>
-  </si>
-  <si>
-    <t>power_update:Substation</t>
-  </si>
-  <si>
     <t>mainTransformer</t>
   </si>
   <si>
     <t>VoltageTransformer</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=mainTransformer)</t>
-  </si>
-  <si>
-    <t>power_update:Substation(version=0.1.0,property=name)</t>
-  </si>
-  <si>
     <t>primaryPowerLine</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=primaryPowerLine)</t>
-  </si>
-  <si>
     <t>primaryVoltage</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=primaryVoltage)</t>
-  </si>
-  <si>
     <t>secondaryPowerLine</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=secondaryPowerLine)</t>
-  </si>
-  <si>
     <t>secondaryVoltage</t>
   </si>
   <si>
-    <t>power_update:Substation(version=0.1.0,property=secondaryVoltage)</t>
-  </si>
-  <si>
-    <t>TimeseriesForecastProduct</t>
-  </si>
-  <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=description)</t>
-  </si>
-  <si>
-    <t>power_update:TimeseriesForecastProduct</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=expected)</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=high)</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=low)</t>
-  </si>
-  <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=name)</t>
-  </si>
-  <si>
     <t>sources</t>
   </si>
   <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0,property=sources)</t>
-  </si>
-  <si>
     <t>maxLevel</t>
   </si>
   <si>
-    <t>power_update:VoltageLevel(version=0.1.0,property=maxLevel)</t>
-  </si>
-  <si>
-    <t>power_update:VoltageLevel</t>
-  </si>
-  <si>
     <t>inputVoltageLevel</t>
   </si>
   <si>
-    <t>power_update:VoltageTransformer(version=0.1.0,property=inputVoltageLevel)</t>
-  </si>
-  <si>
-    <t>power_update:VoltageTransformer</t>
-  </si>
-  <si>
     <t>outputVoltageLevel</t>
   </si>
   <si>
-    <t>power_update:VoltageTransformer(version=0.1.0,property=outputVoltageLevel)</t>
-  </si>
-  <si>
     <t>arrayCable</t>
   </si>
   <si>
     <t>ArrayCable</t>
   </si>
   <si>
-    <t>power_update:WindFarm(version=0.1.0,property=arrayCable)</t>
-  </si>
-  <si>
     <t>exportCable</t>
   </si>
   <si>
     <t>ExportCable</t>
   </si>
   <si>
-    <t>power_update:WindFarm(version=0.1.0,property=exportCable)</t>
-  </si>
-  <si>
-    <t>power_update:WindFarm</t>
-  </si>
-  <si>
     <t>substation</t>
   </si>
   <si>
     <t>OffshoreSubstation</t>
   </si>
   <si>
-    <t>power_update:WindFarm(version=0.1.0,property=substation)</t>
-  </si>
-  <si>
-    <t>power_update:WindFarm(version=0.1.0,property=windTurbines)</t>
-  </si>
-  <si>
     <t>arrayCableConnection</t>
   </si>
   <si>
-    <t>power_update:WindTurbine(version=0.1.0,property=arrayCableConnection)</t>
-  </si>
-  <si>
-    <t>power_update:WindTurbine(version=0.1.0,property=hubHeight)</t>
-  </si>
-  <si>
-    <t>power_update:WindTurbine(version=0.1.0,property=lifeExpectancy)</t>
-  </si>
-  <si>
-    <t>power_update:WindTurbine(version=0.1.0,property=manufacturer)</t>
-  </si>
-  <si>
-    <t>power_update:WindTurbine(version=0.1.0,property=ratedPower)</t>
-  </si>
-  <si>
-    <t>power_update:ArrayCable(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:CircuitBreaker(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:CurrentTransformer(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:DisconnectSwitch(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:DistributionLine(version=0.1.0)</t>
-  </si>
-  <si>
     <t>DistributionSubstation</t>
   </si>
   <si>
-    <t>power_update:DistributionSubstation(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:ElectricCarCharger(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyArea(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:EnergyConsumer(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:ExportCable(version=0.1.0)</t>
-  </si>
-  <si>
     <t>An asset that is creating power</t>
   </si>
   <si>
-    <t>power_update:GeneratingUnit(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:GeoLocation(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:Meter(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:MultiLineString(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:OffshoreSubstation(version=0.1.0)</t>
-  </si>
-  <si>
     <t>OnshoreSubstation</t>
   </si>
   <si>
     <t>TransmissionSubstation</t>
   </si>
   <si>
-    <t>power_update:OnshoreSubstation(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:Point(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:Polygon(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:PowerLine(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:Substation(version=0.1.0)</t>
-  </si>
-  <si>
     <t>Timeseries Forecast Product</t>
   </si>
   <si>
     <t>This represent a timeseries forecast</t>
   </si>
   <si>
-    <t>power_update:TimeseriesForecastProduct(version=0.1.0)</t>
-  </si>
-  <si>
     <t>Transmission</t>
   </si>
   <si>
-    <t>power_update:Transmission(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:TransmissionSubstation(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:VoltageLevel(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:VoltageTransformer(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:WindFarm(version=0.1.0)</t>
-  </si>
-  <si>
-    <t>power_update:WindTurbine(version=0.1.0)</t>
+    <t>EnergyArea2</t>
+  </si>
+  <si>
+    <t>Energy Area 2</t>
+  </si>
+  <si>
+    <t>This is the second container for the Energy Area</t>
+  </si>
+  <si>
+    <t>GeneratingUnit2</t>
+  </si>
+  <si>
+    <t>Generating Unit 2</t>
+  </si>
+  <si>
+    <t>This is the second container for the GeneratingUnit</t>
   </si>
   <si>
     <t>enterprise</t>
   </si>
   <si>
-    <t>power_update</t>
-  </si>
-  <si>
     <t>Power to Consumer Data Model</t>
   </si>
   <si>
@@ -793,6 +508,318 @@
   </si>
   <si>
     <t>rebuild</t>
+  </si>
+  <si>
+    <t>power_analytics</t>
+  </si>
+  <si>
+    <t>power:EnergyArea</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0,property=powerForecast)</t>
+  </si>
+  <si>
+    <t>power:EnergyArea2</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit</t>
+  </si>
+  <si>
+    <t>power:WindTurbine</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0,property=powerForecast)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit2</t>
+  </si>
+  <si>
+    <t>power:Point</t>
+  </si>
+  <si>
+    <t>power:Polygon</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:CircuitBreaker(version=0.1.0,property=maxCapacity)</t>
+  </si>
+  <si>
+    <t>power:CircuitBreaker</t>
+  </si>
+  <si>
+    <t>power:CurrentTransformer(version=0.1.0,property=maxCapacity)</t>
+  </si>
+  <si>
+    <t>power:CurrentTransformer</t>
+  </si>
+  <si>
+    <t>power:DisconnectSwitch(version=0.1.0,property=maxCapacity)</t>
+  </si>
+  <si>
+    <t>power:DisconnectSwitch</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0,property=activePower)</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0,property=geoLocation)</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0,property=ratedPower)</t>
+  </si>
+  <si>
+    <t>power:EnergyConsumer(version=0.1.0,property=load)</t>
+  </si>
+  <si>
+    <t>power:EnergyConsumer</t>
+  </si>
+  <si>
+    <t>power:EnergyConsumer(version=0.1.0,property=location)</t>
+  </si>
+  <si>
+    <t>power:EnergyConsumer(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0,property=activePower)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0,property=geoLocation)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0,property=type)</t>
+  </si>
+  <si>
+    <t>power:GeoLocation(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:GeoLocation</t>
+  </si>
+  <si>
+    <t>power:Meter(version=0.1.0,property=consumer)</t>
+  </si>
+  <si>
+    <t>power:Meter(version=0.1.0,property=consumption)</t>
+  </si>
+  <si>
+    <t>power:Meter</t>
+  </si>
+  <si>
+    <t>power:Meter(version=0.1.0,property=powerLine)</t>
+  </si>
+  <si>
+    <t>power:MultiLineString(version=0.1.0,property=point)</t>
+  </si>
+  <si>
+    <t>power:Point(version=0.1.0,property=latitude)</t>
+  </si>
+  <si>
+    <t>power:Point(version=0.1.0,property=longitude)</t>
+  </si>
+  <si>
+    <t>power:Polygon(version=0.1.0,property=point)</t>
+  </si>
+  <si>
+    <t>power:PowerLine(version=0.1.0,property=currentVoltage)</t>
+  </si>
+  <si>
+    <t>power:PowerLine</t>
+  </si>
+  <si>
+    <t>power:PowerLine(version=0.1.0,property=geoLocation)</t>
+  </si>
+  <si>
+    <t>power:PowerLine(version=0.1.0,property=length)</t>
+  </si>
+  <si>
+    <t>power:PowerLine(version=0.1.0,property=voltageLevel)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=circuitBreaker)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=currentTransformer)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=disconnectSwitch)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=location)</t>
+  </si>
+  <si>
+    <t>power:Substation</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=mainTransformer)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=primaryPowerLine)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=primaryVoltage)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=secondaryPowerLine)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0,property=secondaryVoltage)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=description)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=expected)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=high)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=low)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=name)</t>
+  </si>
+  <si>
+    <t>power:TimeseriesForecastProduct(version=0.1.0,property=sources)</t>
+  </si>
+  <si>
+    <t>power:VoltageLevel(version=0.1.0,property=maxLevel)</t>
+  </si>
+  <si>
+    <t>power:VoltageLevel</t>
+  </si>
+  <si>
+    <t>power:VoltageTransformer(version=0.1.0,property=inputVoltageLevel)</t>
+  </si>
+  <si>
+    <t>power:VoltageTransformer</t>
+  </si>
+  <si>
+    <t>power:VoltageTransformer(version=0.1.0,property=outputVoltageLevel)</t>
+  </si>
+  <si>
+    <t>power:WindFarm(version=0.1.0,property=arrayCable)</t>
+  </si>
+  <si>
+    <t>power:WindFarm(version=0.1.0,property=exportCable)</t>
+  </si>
+  <si>
+    <t>power:WindFarm</t>
+  </si>
+  <si>
+    <t>power:WindFarm(version=0.1.0,property=substation)</t>
+  </si>
+  <si>
+    <t>power:WindFarm(version=0.1.0,property=windTurbines)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0,property=arrayCableConnection)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0,property=hubHeight)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0,property=lifeExpectancy)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0,property=manufacturer)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0,property=ratedPower)</t>
+  </si>
+  <si>
+    <t>power:ArrayCable(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:CircuitBreaker(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:CurrentTransformer(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:DisconnectSwitch(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:DistributionLine(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:DistributionSubstation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:ElectricCarCharger(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:EnergyArea(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:EnergyConsumer(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:ExportCable(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:GeneratingUnit(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:GeoLocation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:Meter(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:MultiLineString(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:OffshoreSubstation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:OnshoreSubstation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:Point(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:Polygon(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:PowerLine(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:Substation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:Transmission(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:TransmissionSubstation(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:VoltageLevel(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:VoltageTransformer(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:WindFarm(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power:WindTurbine(version=0.1.0)</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1219,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:B12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1238,60 +1265,60 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1348,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1333,457 +1360,451 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1796,18 +1817,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:F14"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
@@ -1815,7 +1836,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1825,216 +1846,250 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2070,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2078,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2094,60 +2151,60 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
-        <v>45431.903114560177</v>
+        <v>45433.627654062497</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
-        <v>45433.409728761573</v>
+        <v>45433.627654062497</v>
       </c>
     </row>
   </sheetData>
@@ -2157,29 +2214,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:P47"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="42.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2199,66 +2258,68 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2269,34 +2330,32 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>0</v>
@@ -2307,199 +2366,189 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -2507,32 +2556,34 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -2543,7 +2594,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>57</v>
@@ -2551,7 +2602,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>57</v>
@@ -2559,21 +2610,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -2581,35 +2630,35 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="b">
         <v>0</v>
@@ -2617,34 +2666,32 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>1</v>
@@ -2655,70 +2702,72 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>0</v>
@@ -2729,73 +2778,67 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
@@ -2803,994 +2846,54 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="O19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>187</v>
+      <c r="P19" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3798,28 +2901,32 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3831,100 +2938,120 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3937,11 +3064,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3953,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3963,54 +3090,22 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4026,8 +3121,8 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:P47"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4047,7 +3142,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4067,66 +3162,66 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -4137,34 +3232,34 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>0</v>
@@ -4175,32 +3270,32 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -4211,32 +3306,32 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>0</v>
@@ -4247,34 +3342,34 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -4285,18 +3380,18 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -4319,16 +3414,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -4339,32 +3434,32 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -4375,32 +3470,32 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -4411,34 +3506,34 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>1</v>
@@ -4449,32 +3544,32 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>0</v>
@@ -4485,34 +3580,34 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>1</v>
@@ -4523,32 +3618,32 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>0</v>
@@ -4559,34 +3654,34 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>0</v>
@@ -4597,34 +3692,34 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4" t="b">
         <v>1</v>
@@ -4635,32 +3730,32 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="b">
         <v>1</v>
@@ -4671,18 +3766,18 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -4705,16 +3800,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3" t="b">
         <v>1</v>
@@ -4725,34 +3820,34 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3" t="b">
         <v>1</v>
@@ -4763,32 +3858,32 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="3" t="b">
         <v>1</v>
@@ -4799,32 +3894,32 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3" t="b">
         <v>1</v>
@@ -4835,32 +3930,32 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="3" t="b">
         <v>0</v>
@@ -4871,34 +3966,34 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="b">
@@ -4911,26 +4006,26 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="b">
@@ -4943,26 +4038,26 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="b">
@@ -4975,10 +4070,10 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -5001,16 +4096,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4" t="b">
         <v>0</v>
@@ -5021,34 +4116,34 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G30" s="4" t="b">
         <v>1</v>
@@ -5059,32 +4154,32 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4" t="b">
         <v>0</v>
@@ -5095,32 +4190,32 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G32" s="4" t="b">
         <v>1</v>
@@ -5131,32 +4226,32 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="4" t="b">
         <v>1</v>
@@ -5167,32 +4262,32 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="4" t="b">
         <v>1</v>
@@ -5203,32 +4298,32 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="4" t="b">
         <v>1</v>
@@ -5239,32 +4334,32 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="4" t="b">
         <v>1</v>
@@ -5275,32 +4370,32 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="4" t="b">
         <v>0</v>
@@ -5311,34 +4406,34 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="b">
@@ -5351,24 +4446,24 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G39" s="4" t="b">
         <v>0</v>
@@ -5379,32 +4474,32 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="4" t="b">
         <v>0</v>
@@ -5415,18 +4510,18 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +4538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="A3:H8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5457,7 +4552,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5469,100 +4564,100 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5579,7 +4674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F6"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5591,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5601,54 +4696,54 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5663,7 +4758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K15:K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5692,7 +4789,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -5708,49 +4805,49 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>45432.389185081018</v>
@@ -5758,7 +4855,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>45432.394316944446</v>
@@ -5771,11 +4868,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:P58"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5783,7 +4880,7 @@
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="74.44140625" customWidth="1"/>
     <col min="11" max="11" width="38.44140625" customWidth="1"/>
@@ -5795,7 +4892,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5815,66 +4912,66 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -5884,21 +4981,21 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5921,16 +5018,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -5940,21 +5037,21 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -5977,16 +5074,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -5996,21 +5093,21 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -6033,16 +5130,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>0</v>
@@ -6052,37 +5149,37 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -6092,35 +5189,35 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>0</v>
@@ -6130,263 +5227,265 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4" t="b">
         <v>0</v>
@@ -6396,37 +5495,37 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G20" s="4" t="b">
         <v>1</v>
@@ -6436,35 +5535,35 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="4" t="b">
         <v>0</v>
@@ -6474,367 +5573,369 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4" t="b">
         <v>0</v>
@@ -6844,183 +5945,183 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="G38" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G39" s="4" t="b">
         <v>1</v>
@@ -7030,37 +6131,35 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="G40" s="4" t="b">
         <v>1</v>
@@ -7070,89 +6169,95 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="b">
@@ -7160,33 +6265,33 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="b">
@@ -7194,71 +6299,65 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="G46" s="3" t="b">
         <v>1</v>
@@ -7268,323 +6367,325 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F47" s="3" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="G47" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="G48" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F49" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G49" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="G50" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F51" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="O52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G54" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G55" s="4" t="b">
         <v>0</v>
@@ -7594,35 +6695,35 @@
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G56" s="4" t="b">
         <v>0</v>
@@ -7632,35 +6733,35 @@
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G57" s="4" t="b">
         <v>0</v>
@@ -7670,193 +6771,191 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G58" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="J59" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="O59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="O61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G63" s="4" t="b">
         <v>1</v>
@@ -7866,129 +6965,129 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="J64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="O64" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="G67" s="3" t="b">
         <v>1</v>
@@ -7998,203 +7097,205 @@
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H68" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="O69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G70" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F71" s="4" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G71" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G72" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G73" s="4" t="b">
         <v>1</v>
@@ -8204,59 +7305,97 @@
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G74" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
